--- a/FAO5.xlsx
+++ b/FAO5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Dropbox\UIUC\QSDsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D62CB-5B4E-40CF-A4B6-45D172C35830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FCEF2-823F-4162-8876-9C16E1AF743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{34459E07-C3D7-4F4A-9FB8-FCBA9ECF4375}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>Congo</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -370,6 +364,12 @@
   <si>
     <t>Importing</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
   </si>
 </sst>
 </file>
@@ -1239,18 +1239,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E05755-6FC3-4EB6-863C-B9E8F2E46629}">
   <dimension ref="A1:D1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
+      <selection activeCell="A698" sqref="A698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
         <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C159" t="s">
         <v>26</v>
@@ -3602,7 +3602,7 @@
         <v>53</v>
       </c>
       <c r="B169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B176" t="s">
         <v>43</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B177" t="s">
         <v>43</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B178" t="s">
         <v>43</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s">
         <v>43</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
         <v>43</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
+        <v>61</v>
+      </c>
+      <c r="B181" t="s">
         <v>62</v>
-      </c>
-      <c r="B181" t="s">
-        <v>63</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B183" t="s">
         <v>35</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
         <v>47</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
         <v>24</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
         <v>57</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s">
         <v>57</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
         <v>57</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
         <v>57</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s">
         <v>57</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s">
         <v>49</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s">
         <v>58</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
         <v>19</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
         <v>28</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
         <v>29</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
         <v>29</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B209" t="s">
         <v>44</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B214" t="s">
         <v>9</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B215" t="s">
         <v>45</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B216" t="s">
         <v>47</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
+        <v>64</v>
+      </c>
+      <c r="B217" t="s">
         <v>65</v>
-      </c>
-      <c r="B217" t="s">
-        <v>66</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
+        <v>64</v>
+      </c>
+      <c r="B218" t="s">
         <v>65</v>
-      </c>
-      <c r="B218" t="s">
-        <v>66</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B223" t="s">
         <v>49</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B224" t="s">
         <v>49</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B225" t="s">
         <v>49</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B226" t="s">
         <v>13</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B227" t="s">
         <v>13</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B228" t="s">
         <v>13</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B229" t="s">
         <v>13</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B230" t="s">
         <v>27</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B231" t="s">
         <v>27</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B232" t="s">
         <v>27</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B233" t="s">
         <v>14</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B234" t="s">
         <v>14</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B235" t="s">
         <v>14</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B236" t="s">
         <v>50</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B238" t="s">
         <v>56</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B242" t="s">
         <v>23</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B243" t="s">
         <v>48</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B247" t="s">
         <v>27</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
         <v>28</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
         <v>33</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B251" t="s">
         <v>31</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B252" t="s">
         <v>42</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B253" t="s">
         <v>43</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B254" t="s">
         <v>35</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B255" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B256" t="s">
         <v>35</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s">
         <v>35</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s">
         <v>35</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s">
         <v>35</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s">
         <v>35</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B262" t="s">
         <v>45</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B263" t="s">
         <v>56</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B270" t="s">
         <v>23</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B271" t="s">
         <v>23</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B272" t="s">
         <v>23</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A273" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A274" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B274" t="s">
         <v>23</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A275" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B275" t="s">
         <v>23</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A276" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B276" t="s">
         <v>23</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A277" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A278" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A279" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B279" t="s">
         <v>11</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A280" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B280" t="s">
         <v>49</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A281" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B281" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A282" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B282" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A283" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B283" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C283" t="s">
         <v>4</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A284" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B284" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A285" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B285" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C285" t="s">
         <v>8</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A286" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B286" t="s">
         <v>28</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A287" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B287" t="s">
         <v>28</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A288" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B288" t="s">
         <v>28</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A289" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B289" t="s">
         <v>28</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A290" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B290" t="s">
         <v>33</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A291" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B291" t="s">
         <v>33</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B292" t="s">
         <v>33</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A293" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B293" t="s">
         <v>33</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A294" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B294" t="s">
         <v>29</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B295" t="s">
         <v>29</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A296" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B296" t="s">
         <v>29</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B297" t="s">
         <v>29</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A298" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B298" t="s">
         <v>43</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A299" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B299" t="s">
         <v>43</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A300" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B300" t="s">
         <v>54</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A301" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B301" t="s">
         <v>54</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A302" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B302" t="s">
         <v>54</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A303" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B303" t="s">
         <v>54</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A304" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B304" t="s">
         <v>54</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A305" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B305" t="s">
         <v>35</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A306" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B306" t="s">
         <v>35</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B307" t="s">
         <v>39</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A308" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B308" t="s">
         <v>39</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A309" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B309" t="s">
         <v>39</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A310" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B310" t="s">
         <v>39</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A311" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B311" t="s">
         <v>3</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A312" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A313" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B313" t="s">
         <v>21</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A314" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B314" t="s">
         <v>21</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A315" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B315" t="s">
         <v>47</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A316" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B316" t="s">
         <v>23</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A317" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B317" t="s">
         <v>23</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A318" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B318" t="s">
         <v>23</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A319" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B319" t="s">
         <v>24</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A320" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B320" t="s">
         <v>24</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A321" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A322" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A323" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B323" t="s">
         <v>11</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A324" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B324" t="s">
         <v>11</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A325" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B325" t="s">
         <v>27</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A326" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B326" t="s">
         <v>27</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A327" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B327" t="s">
         <v>27</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A328" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B328" t="s">
         <v>27</v>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A329" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B329" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C329" t="s">
         <v>12</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A330" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B330" t="s">
         <v>28</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A331" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B331" t="s">
         <v>28</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A332" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B332" t="s">
         <v>28</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A333" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B333" t="s">
         <v>29</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A334" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B334" t="s">
         <v>29</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A335" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B335" t="s">
         <v>29</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A336" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B336" t="s">
         <v>3</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A337" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B337" t="s">
         <v>11</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A338" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A339" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B339" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C339" t="s">
         <v>18</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A340" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B340" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C340" t="s">
         <v>26</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A341" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B341" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C341" t="s">
         <v>8</v>
@@ -6021,10 +6021,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A342" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B342" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C342" t="s">
         <v>8</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A343" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B343" t="s">
         <v>55</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A344" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B344" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C344" t="s">
         <v>8</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A345" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B345" t="s">
         <v>55</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A346" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B346" t="s">
         <v>9</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A347" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A348" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B348" t="s">
         <v>24</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A349" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B349" t="s">
         <v>24</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A350" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B350" t="s">
         <v>58</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A351" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B351" t="s">
         <v>31</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A352" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B352" t="s">
         <v>31</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A353" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B353" t="s">
         <v>31</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A354" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B354" t="s">
         <v>31</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A355" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B355" t="s">
         <v>31</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A356" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B356" t="s">
         <v>42</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A357" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B357" t="s">
         <v>43</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A358" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B358" t="s">
         <v>43</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A359" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A360" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A361" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B361" t="s">
         <v>35</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A362" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B362" t="s">
         <v>35</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A363" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B363" t="s">
         <v>35</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A364" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B364" t="s">
         <v>39</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A365" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B365" t="s">
         <v>56</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A366" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A367" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B367" t="s">
         <v>32</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A368" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B368" t="s">
         <v>32</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A369" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B369" t="s">
         <v>32</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A370" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B370" t="s">
         <v>32</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A371" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B371" t="s">
         <v>32</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A372" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B372" t="s">
         <v>32</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A373" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B373" t="s">
         <v>32</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A374" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B374" t="s">
         <v>23</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A375" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B375" t="s">
         <v>23</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A376" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B376" t="s">
         <v>23</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A377" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B377" t="s">
         <v>11</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A378" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B378" t="s">
         <v>11</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A379" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B379" t="s">
         <v>49</v>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A380" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B380" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A381" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B381" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C381" t="s">
         <v>18</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A382" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B382" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A383" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B383" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C383" t="s">
         <v>12</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A384" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B384" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A385" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B385" t="s">
         <v>28</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A386" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B386" t="s">
         <v>28</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A387" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B387" t="s">
         <v>28</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A388" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B388" t="s">
         <v>33</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A389" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B389" t="s">
         <v>33</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A390" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B390" t="s">
         <v>33</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A391" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B391" t="s">
         <v>29</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A392" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B392" t="s">
         <v>29</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A393" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A394" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A395" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B395" t="s">
         <v>45</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A396" t="s">
+        <v>76</v>
+      </c>
+      <c r="B396" t="s">
         <v>77</v>
-      </c>
-      <c r="B396" t="s">
-        <v>78</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -6791,10 +6791,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A397" t="s">
+        <v>76</v>
+      </c>
+      <c r="B397" t="s">
         <v>77</v>
-      </c>
-      <c r="B397" t="s">
-        <v>78</v>
       </c>
       <c r="C397" t="s">
         <v>10</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A398" t="s">
+        <v>76</v>
+      </c>
+      <c r="B398" t="s">
         <v>77</v>
-      </c>
-      <c r="B398" t="s">
-        <v>78</v>
       </c>
       <c r="C398" t="s">
         <v>4</v>
@@ -6819,10 +6819,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A399" t="s">
+        <v>76</v>
+      </c>
+      <c r="B399" t="s">
         <v>77</v>
-      </c>
-      <c r="B399" t="s">
-        <v>78</v>
       </c>
       <c r="C399" t="s">
         <v>12</v>
@@ -6833,10 +6833,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A400" t="s">
+        <v>76</v>
+      </c>
+      <c r="B400" t="s">
         <v>77</v>
-      </c>
-      <c r="B400" t="s">
-        <v>78</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A401" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B401" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
@@ -6861,10 +6861,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A402" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B402" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C402" t="s">
         <v>4</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A403" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B403" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A404" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B404" t="s">
         <v>13</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A405" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B405" t="s">
         <v>13</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A406" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B406" t="s">
         <v>13</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A407" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B407" t="s">
         <v>13</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A408" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B408" t="s">
         <v>27</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A409" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B409" t="s">
         <v>27</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A410" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B410" t="s">
         <v>14</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A411" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B411" t="s">
         <v>35</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A412" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B412" t="s">
         <v>35</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A413" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B413" t="s">
         <v>35</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A414" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B414" t="s">
         <v>35</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A415" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B415" t="s">
         <v>35</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A416" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B416" t="s">
         <v>35</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A417" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B417" t="s">
         <v>56</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A418" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B418" t="s">
         <v>3</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A419" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B419" t="s">
         <v>3</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A420" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B420" t="s">
         <v>3</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A421" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B421" t="s">
         <v>23</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A422" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B422" t="s">
         <v>23</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A423" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B423" t="s">
         <v>23</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A424" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B424" t="s">
         <v>23</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A425" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B425" t="s">
         <v>11</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A426" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B426" t="s">
         <v>49</v>
@@ -7211,10 +7211,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A427" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B427" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C427" t="s">
         <v>7</v>
@@ -7225,10 +7225,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A428" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B428" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C428" t="s">
         <v>18</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A429" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B429" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A430" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B430" t="s">
         <v>33</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A431" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B431" t="s">
         <v>33</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A432" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B432" t="s">
         <v>33</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A433" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B433" t="s">
         <v>33</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A434" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B434" t="s">
         <v>33</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A435" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B435" t="s">
         <v>33</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A436" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B436" t="s">
         <v>33</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A437" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B437" t="s">
         <v>29</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A438" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B438" t="s">
         <v>31</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A439" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B439" t="s">
         <v>35</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A440" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B440" t="s">
         <v>35</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A441" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B441" t="s">
         <v>35</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A442" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B442" t="s">
         <v>35</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A443" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B443" t="s">
         <v>35</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A444" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B444" t="s">
         <v>3</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A445" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B445" t="s">
         <v>32</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A446" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B446" t="s">
         <v>32</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A447" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B447" t="s">
         <v>32</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A448" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B448" t="s">
         <v>32</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A449" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B449" t="s">
         <v>23</v>
@@ -7533,10 +7533,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A450" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B450" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C450" t="s">
         <v>7</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A451" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B451" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C451" t="s">
         <v>18</v>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A452" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B452" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C452" t="s">
         <v>26</v>
@@ -7575,10 +7575,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A453" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B453" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C453" t="s">
         <v>4</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A454" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B454" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C454" t="s">
         <v>12</v>
@@ -7603,10 +7603,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A455" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B455" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A456" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B456" t="s">
         <v>33</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A457" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B457" t="s">
         <v>31</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A458" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B458" t="s">
         <v>43</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A459" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B459" t="s">
         <v>43</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A460" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B460" t="s">
         <v>43</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A461" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B461" t="s">
         <v>43</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A462" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B462" t="s">
         <v>43</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A463" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B463" t="s">
         <v>44</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A464" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B464" t="s">
         <v>44</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A465" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A466" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A467" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B467" t="s">
         <v>6</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A468" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B468" t="s">
         <v>6</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A469" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B469" t="s">
         <v>9</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A470" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B470" t="s">
         <v>9</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A471" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B471" t="s">
         <v>45</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A472" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B472" t="s">
         <v>3</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A473" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B473" t="s">
         <v>3</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A474" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B474" t="s">
         <v>21</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A475" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B475" t="s">
         <v>22</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A476" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B476" t="s">
         <v>22</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A477" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B477" t="s">
         <v>22</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A478" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B478" t="s">
         <v>22</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A479" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B479" t="s">
         <v>22</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A480" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B480" t="s">
         <v>22</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A481" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B481" t="s">
         <v>22</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A482" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B482" t="s">
         <v>47</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A483" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B483" t="s">
         <v>24</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A484" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B484" t="s">
         <v>25</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A485" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B485" t="s">
         <v>25</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A486" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B486" t="s">
         <v>48</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A487" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B487" t="s">
         <v>11</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A488" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B488" t="s">
         <v>11</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A489" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B489" t="s">
         <v>11</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A490" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B490" t="s">
         <v>49</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A491" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B491" t="s">
         <v>27</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A492" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B492" t="s">
         <v>27</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A493" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B493" t="s">
         <v>14</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A494" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B494" t="s">
         <v>58</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A495" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B495" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C495" t="s">
         <v>7</v>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A496" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B496" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C496" t="s">
         <v>4</v>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A497" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B497" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C497" t="s">
         <v>7</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A498" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B498" t="s">
         <v>19</v>
@@ -8219,10 +8219,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A499" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B499" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C499" t="s">
         <v>7</v>
@@ -8233,10 +8233,10 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A500" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B500" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C500" t="s">
         <v>10</v>
@@ -8247,10 +8247,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A501" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B501" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C501" t="s">
         <v>18</v>
@@ -8261,10 +8261,10 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A502" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B502" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C502" t="s">
         <v>26</v>
@@ -8275,10 +8275,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A503" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B503" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C503" t="s">
         <v>4</v>
@@ -8289,10 +8289,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A504" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B504" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C504" t="s">
         <v>12</v>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A505" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B505" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C505" t="s">
         <v>8</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A506" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B506" t="s">
         <v>29</v>
@@ -8331,10 +8331,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A507" t="s">
+        <v>80</v>
+      </c>
+      <c r="B507" t="s">
         <v>81</v>
-      </c>
-      <c r="B507" t="s">
-        <v>82</v>
       </c>
       <c r="C507" t="s">
         <v>7</v>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A508" t="s">
+        <v>80</v>
+      </c>
+      <c r="B508" t="s">
         <v>81</v>
-      </c>
-      <c r="B508" t="s">
-        <v>82</v>
       </c>
       <c r="C508" t="s">
         <v>8</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A509" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B509" t="s">
         <v>42</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A510" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B510" t="s">
         <v>42</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A511" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B511" t="s">
         <v>42</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A512" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B512" t="s">
         <v>44</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A513" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B513" t="s">
         <v>44</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A514" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A515" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A516" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B516" t="s">
         <v>35</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A517" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B517" t="s">
         <v>35</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A518" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B518" t="s">
         <v>35</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A519" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B519" t="s">
         <v>35</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A520" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B520" t="s">
         <v>35</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A521" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B521" t="s">
         <v>35</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A522" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B522" t="s">
         <v>56</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A523" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B523" t="s">
         <v>3</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A524" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B524" t="s">
         <v>3</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A525" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B525" t="s">
         <v>3</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A526" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B526" t="s">
         <v>3</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A527" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B527" t="s">
         <v>3</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A528" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B528" t="s">
         <v>3</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A529" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B529" t="s">
         <v>3</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A530" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B530" t="s">
         <v>21</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A531" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B531" t="s">
         <v>32</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A532" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B532" t="s">
         <v>32</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A533" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B533" t="s">
         <v>23</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A534" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B534" t="s">
         <v>23</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A535" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B535" t="s">
         <v>23</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A536" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B536" t="s">
         <v>23</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A537" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B537" t="s">
         <v>23</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A538" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B538" t="s">
         <v>57</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A539" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B539" t="s">
         <v>57</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A540" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B540" t="s">
         <v>57</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A541" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B541" t="s">
         <v>48</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A542" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B542" t="s">
         <v>48</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A543" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B543" t="s">
         <v>11</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A544" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B544" t="s">
         <v>11</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A545" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B545" t="s">
         <v>49</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A546" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B546" t="s">
         <v>49</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A547" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B547" t="s">
         <v>13</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A548" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B548" t="s">
         <v>13</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A549" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B549" t="s">
         <v>13</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A550" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B550" t="s">
         <v>27</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A551" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B551" t="s">
         <v>50</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A552" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B552" t="s">
         <v>50</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A553" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B553" t="s">
         <v>58</v>
@@ -8989,10 +8989,10 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A554" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B554" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C554" t="s">
         <v>7</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A555" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B555" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C555" t="s">
         <v>4</v>
@@ -9017,10 +9017,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A556" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B556" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C556" t="s">
         <v>12</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A557" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B557" t="s">
         <v>19</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A558" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B558" t="s">
         <v>19</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A559" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B559" t="s">
         <v>19</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A560" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B560" t="s">
         <v>19</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A561" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B561" t="s">
         <v>28</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A562" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B562" t="s">
         <v>28</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A563" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B563" t="s">
         <v>28</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A564" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B564" t="s">
         <v>33</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A565" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B565" t="s">
         <v>33</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A566" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B566" t="s">
         <v>33</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A567" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B567" t="s">
         <v>33</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A568" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B568" t="s">
         <v>33</v>
@@ -9199,10 +9199,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A569" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B569" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C569" t="s">
         <v>4</v>
@@ -9213,10 +9213,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A570" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B570" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C570" t="s">
         <v>8</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A571" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B571" t="s">
         <v>29</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A572" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B572" t="s">
         <v>29</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A573" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B573" t="s">
         <v>29</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A574" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B574" t="s">
         <v>29</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A575" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B575" t="s">
         <v>29</v>
@@ -9297,10 +9297,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A576" t="s">
+        <v>82</v>
+      </c>
+      <c r="B576" t="s">
         <v>83</v>
-      </c>
-      <c r="B576" t="s">
-        <v>84</v>
       </c>
       <c r="C576" t="s">
         <v>7</v>
@@ -9311,10 +9311,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A577" t="s">
+        <v>82</v>
+      </c>
+      <c r="B577" t="s">
         <v>83</v>
-      </c>
-      <c r="B577" t="s">
-        <v>84</v>
       </c>
       <c r="C577" t="s">
         <v>8</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A578" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B578" t="s">
         <v>6</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A579" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B579" t="s">
         <v>6</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A580" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B580" t="s">
         <v>6</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A581" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B581" t="s">
         <v>9</v>
@@ -9381,10 +9381,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A582" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B582" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C582" t="s">
         <v>8</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A583" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B583" t="s">
         <v>11</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A584" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B584" t="s">
         <v>11</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A585" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B585" t="s">
         <v>11</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A586" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B586" t="s">
         <v>13</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A587" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B587" t="s">
         <v>27</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A588" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B588" t="s">
         <v>28</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A589" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B589" t="s">
         <v>28</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A590" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B590" t="s">
         <v>29</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A591" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B591" t="s">
         <v>29</v>
@@ -9521,10 +9521,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A592" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B592" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C592" t="s">
         <v>18</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A593" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B593" t="s">
         <v>42</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A594" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B594" t="s">
         <v>6</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A595" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B595" t="s">
         <v>35</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A596" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B596" t="s">
         <v>35</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A597" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B597" t="s">
         <v>3</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A598" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B598" t="s">
         <v>3</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A599" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B599" t="s">
         <v>3</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A600" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B600" t="s">
         <v>32</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A601" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B601" t="s">
         <v>11</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A602" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B602" t="s">
         <v>11</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A603" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B603" t="s">
         <v>11</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A604" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B604" t="s">
         <v>27</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A605" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B605" t="s">
         <v>27</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A606" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B606" t="s">
         <v>14</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A607" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B607" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C607" t="s">
         <v>4</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A608" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B608" t="s">
         <v>33</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A609" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B609" t="s">
         <v>29</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A610" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B610" t="s">
         <v>29</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A611" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B611" t="s">
         <v>29</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A612" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B612" t="s">
         <v>29</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A613" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B613" t="s">
         <v>29</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A614" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B614" t="s">
         <v>29</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A615" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B615" t="s">
         <v>35</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A616" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B616" t="s">
         <v>35</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A617" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B617" t="s">
         <v>35</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A618" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B618" t="s">
         <v>35</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A619" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B619" t="s">
         <v>47</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A620" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B620" t="s">
         <v>58</v>
@@ -9927,10 +9927,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A621" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B621" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C621" t="s">
         <v>12</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A622" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B622" t="s">
         <v>33</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A623" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B623" t="s">
         <v>33</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A624" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B624" t="s">
         <v>29</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A625" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B625" t="s">
         <v>29</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A626" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B626" t="s">
         <v>23</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A627" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B627" t="s">
         <v>38</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A628" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B628" t="s">
         <v>38</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A629" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B629" t="s">
         <v>44</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A630" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B630" t="s">
         <v>6</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A631" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B631" t="s">
         <v>6</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A632" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B632" t="s">
         <v>35</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A633" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B633" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A634" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B634" t="s">
         <v>9</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A635" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B635" t="s">
         <v>9</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A636" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B636" t="s">
         <v>45</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A637" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B637" t="s">
         <v>45</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A638" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B638" t="s">
         <v>45</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A639" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B639" t="s">
         <v>3</v>
@@ -10193,10 +10193,10 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A640" t="s">
+        <v>90</v>
+      </c>
+      <c r="B640" t="s">
         <v>91</v>
-      </c>
-      <c r="B640" t="s">
-        <v>92</v>
       </c>
       <c r="C640" t="s">
         <v>7</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A641" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B641" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C641" t="s">
         <v>4</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A642" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B642" t="s">
         <v>46</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A643" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B643" t="s">
         <v>47</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A644" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B644" t="s">
         <v>24</v>
@@ -10263,10 +10263,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A645" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B645" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C645" t="s">
         <v>7</v>
@@ -10277,10 +10277,10 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A646" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B646" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C646" t="s">
         <v>10</v>
@@ -10291,10 +10291,10 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A647" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B647" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C647" t="s">
         <v>4</v>
@@ -10305,10 +10305,10 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A648" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B648" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C648" t="s">
         <v>8</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A649" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B649" t="s">
         <v>48</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A650" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B650" t="s">
         <v>11</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A651" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B651" t="s">
         <v>11</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A652" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B652" t="s">
         <v>11</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A653" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B653" t="s">
         <v>49</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A654" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B654" t="s">
         <v>13</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A655" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B655" t="s">
         <v>13</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A656" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B656" t="s">
         <v>13</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A657" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B657" t="s">
         <v>13</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A658" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B658" t="s">
         <v>13</v>
@@ -10459,10 +10459,10 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A659" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B659" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C659" t="s">
         <v>8</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A660" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B660" t="s">
         <v>27</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A661" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B661" t="s">
         <v>14</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A662" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B662" t="s">
         <v>14</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A663" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B663" t="s">
         <v>14</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A664" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B664" t="s">
         <v>14</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A665" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B665" t="s">
         <v>14</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A666" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B666" t="s">
         <v>50</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A667" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B667" t="s">
         <v>58</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A668" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B668" t="s">
         <v>15</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A669" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B669" t="s">
         <v>15</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A670" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B670" t="s">
         <v>17</v>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A671" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B671" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C671" t="s">
         <v>8</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A672" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B672" t="s">
         <v>33</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A673" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B673" t="s">
         <v>33</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A674" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B674" t="s">
         <v>29</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A675" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B675" t="s">
         <v>29</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A676" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B676" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C676" t="s">
         <v>7</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A677" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B677" t="s">
         <v>21</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A678" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B678" t="s">
         <v>21</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A679" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B679" t="s">
         <v>24</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A680" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B680" t="s">
         <v>27</v>
@@ -10767,10 +10767,10 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A681" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B681" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C681" t="s">
         <v>8</v>
@@ -10781,10 +10781,10 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A682" t="s">
+        <v>94</v>
+      </c>
+      <c r="B682" t="s">
         <v>95</v>
-      </c>
-      <c r="B682" t="s">
-        <v>96</v>
       </c>
       <c r="C682" t="s">
         <v>7</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A683" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B683" t="s">
         <v>55</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A684" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B684" t="s">
         <v>55</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A685" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B685" t="s">
         <v>55</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A686" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B686" t="s">
         <v>11</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A687" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B687" t="s">
         <v>50</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A688" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B688" t="s">
         <v>50</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A689" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B689" t="s">
         <v>50</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A690" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B690" t="s">
         <v>19</v>
@@ -10907,10 +10907,10 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A691" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B691" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C691" t="s">
         <v>7</v>
@@ -10921,10 +10921,10 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A692" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B692" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C692" t="s">
         <v>4</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A693" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B693" t="s">
         <v>48</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A694" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B694" t="s">
         <v>11</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A695" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B695" t="s">
         <v>11</v>
@@ -10977,7 +10977,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A696" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B696" t="s">
         <v>38</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A697" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B697" t="s">
         <v>31</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A698" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B698" t="s">
         <v>31</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A699" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B699" t="s">
         <v>42</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A700" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B700" t="s">
         <v>42</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A701" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B701" t="s">
         <v>42</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A702" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B702" t="s">
         <v>43</v>
@@ -11075,10 +11075,10 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A703" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B703" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C703" t="s">
         <v>18</v>
@@ -11089,10 +11089,10 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A704" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B704" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C704" t="s">
         <v>8</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A705" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B705" t="s">
         <v>54</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A706" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B706" t="s">
         <v>6</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A707" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B707" t="s">
         <v>35</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A708" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B708" t="s">
         <v>35</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A709" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B709" t="s">
         <v>39</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A710" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B710" t="s">
         <v>39</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A711" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B711" t="s">
         <v>39</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A712" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B712" t="s">
         <v>39</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A713" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B713" t="s">
         <v>39</v>
@@ -11229,10 +11229,10 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A714" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B714" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C714" t="s">
         <v>18</v>
@@ -11243,10 +11243,10 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A715" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B715" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C715" t="s">
         <v>8</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A716" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B716" t="s">
         <v>9</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A717" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B717" t="s">
         <v>9</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A718" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B718" t="s">
         <v>45</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A719" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B719" t="s">
         <v>55</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A720" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B720" t="s">
         <v>55</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A721" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B721" t="s">
         <v>56</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A722" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B722" t="s">
         <v>3</v>
@@ -11355,7 +11355,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A723" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B723" t="s">
         <v>3</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A724" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B724" t="s">
         <v>3</v>
@@ -11383,10 +11383,10 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A725" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B725" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C725" t="s">
         <v>8</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A726" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B726" t="s">
         <v>21</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A727" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B727" t="s">
         <v>32</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A728" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B728" t="s">
         <v>32</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A729" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B729" t="s">
         <v>47</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A730" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B730" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C730" t="s">
         <v>7</v>
@@ -11467,10 +11467,10 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A731" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B731" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C731" t="s">
         <v>8</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A732" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B732" t="s">
         <v>23</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A733" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B733" t="s">
         <v>23</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A734" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B734" t="s">
         <v>23</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A735" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B735" t="s">
         <v>57</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A736" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B736" t="s">
         <v>48</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A737" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B737" t="s">
         <v>48</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A738" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B738" t="s">
         <v>11</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A739" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B739" t="s">
         <v>11</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A740" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B740" t="s">
         <v>11</v>
@@ -11607,10 +11607,10 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A741" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B741" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C741" t="s">
         <v>8</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A742" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B742" t="s">
         <v>49</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A743" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B743" t="s">
         <v>49</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A744" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B744" t="s">
         <v>13</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A745" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B745" t="s">
         <v>13</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A746" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B746" t="s">
         <v>13</v>
@@ -11691,10 +11691,10 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A747" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B747" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C747" t="s">
         <v>8</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A748" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B748" t="s">
         <v>27</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A749" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B749" t="s">
         <v>27</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A750" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B750" t="s">
         <v>27</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A751" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B751" t="s">
         <v>27</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A752" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B752" t="s">
         <v>14</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A753" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B753" t="s">
         <v>50</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A754" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B754" t="s">
         <v>50</v>
@@ -11803,10 +11803,10 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A755" t="s">
+        <v>115</v>
+      </c>
+      <c r="B755" t="s">
         <v>99</v>
-      </c>
-      <c r="B755" t="s">
-        <v>101</v>
       </c>
       <c r="C755" t="s">
         <v>8</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A756" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B756" t="s">
         <v>15</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A757" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B757" t="s">
         <v>17</v>
@@ -11845,10 +11845,10 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A758" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B758" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C758" t="s">
         <v>12</v>
@@ -11859,10 +11859,10 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A759" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B759" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C759" t="s">
         <v>8</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A760" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B760" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C760" t="s">
         <v>7</v>
@@ -11887,10 +11887,10 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A761" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B761" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C761" t="s">
         <v>12</v>
@@ -11901,10 +11901,10 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A762" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B762" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C762" t="s">
         <v>8</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A763" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B763" t="s">
         <v>19</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A764" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B764" t="s">
         <v>28</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A765" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B765" t="s">
         <v>28</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A766" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B766" t="s">
         <v>28</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A767" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B767" t="s">
         <v>28</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A768" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B768" t="s">
         <v>33</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A769" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B769" t="s">
         <v>33</v>
@@ -12013,10 +12013,10 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A770" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B770" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C770" t="s">
         <v>8</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A771" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B771" t="s">
         <v>29</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A772" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B772" t="s">
         <v>29</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A773" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B773" t="s">
         <v>29</v>
@@ -12069,10 +12069,10 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A774" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B774" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C774" t="s">
         <v>8</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A775" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B775" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C775" t="s">
         <v>8</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A776" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B776" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A777" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B777" t="s">
         <v>9</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A778" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B778" t="s">
         <v>9</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A779" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B779" t="s">
         <v>3</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A780" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B780" t="s">
         <v>3</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A781" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B781" t="s">
         <v>25</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A782" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B782" t="s">
         <v>25</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A783" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B783" t="s">
         <v>11</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A784" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B784" t="s">
         <v>11</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A785" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B785" t="s">
         <v>31</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A786" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B786" t="s">
         <v>31</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A787" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B787" t="s">
         <v>31</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A788" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B788" t="s">
         <v>42</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A789" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B789" t="s">
         <v>42</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A790" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B790" t="s">
         <v>43</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A791" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B791" t="s">
         <v>6</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A792" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B792" t="s">
         <v>35</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A793" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B793" t="s">
         <v>35</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A794" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B794" t="s">
         <v>35</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A795" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B795" t="s">
         <v>35</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A796" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B796" t="s">
         <v>39</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A797" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B797" t="s">
         <v>9</v>
@@ -12405,7 +12405,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A798" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B798" t="s">
         <v>9</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A799" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B799" t="s">
         <v>45</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A800" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B800" t="s">
         <v>56</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A801" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B801" t="s">
         <v>56</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A802" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B802" t="s">
         <v>3</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A803" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B803" t="s">
         <v>3</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A804" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B804" t="s">
         <v>3</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A805" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B805" t="s">
         <v>3</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A806" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B806" t="s">
         <v>3</v>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A807" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B807" t="s">
         <v>23</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A808" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B808" t="s">
         <v>23</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A809" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B809" t="s">
         <v>23</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A810" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B810" t="s">
         <v>23</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A811" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B811" t="s">
         <v>23</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A812" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B812" t="s">
         <v>48</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A813" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B813" t="s">
         <v>48</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A814" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B814" t="s">
         <v>48</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A815" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B815" t="s">
         <v>11</v>
@@ -12657,7 +12657,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A816" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B816" t="s">
         <v>11</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A817" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B817" t="s">
         <v>13</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A818" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B818" t="s">
         <v>27</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A819" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B819" t="s">
         <v>27</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A820" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B820" t="s">
         <v>27</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A821" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B821" t="s">
         <v>27</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A822" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B822" t="s">
         <v>27</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A823" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B823" t="s">
         <v>14</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A824" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B824" t="s">
         <v>14</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A825" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B825" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C825" t="s">
         <v>8</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A826" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B826" t="s">
         <v>15</v>
@@ -12811,10 +12811,10 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A827" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B827" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C827" t="s">
         <v>7</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A828" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B828" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C828" t="s">
         <v>4</v>
@@ -12839,10 +12839,10 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A829" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B829" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C829" t="s">
         <v>8</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A830" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B830" t="s">
         <v>28</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A831" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B831" t="s">
         <v>28</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A832" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B832" t="s">
         <v>28</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A833" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B833" t="s">
         <v>28</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A834" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B834" t="s">
         <v>33</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A835" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B835" t="s">
         <v>33</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A836" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B836" t="s">
         <v>33</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A837" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B837" t="s">
         <v>33</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A838" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B838" t="s">
         <v>33</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A839" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B839" t="s">
         <v>29</v>
@@ -12993,10 +12993,10 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A840" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B840" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C840" t="s">
         <v>12</v>
@@ -13007,10 +13007,10 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A841" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B841" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C841" t="s">
         <v>8</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A842" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B842" t="s">
         <v>38</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A843" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B843" t="s">
         <v>38</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A844" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B844" t="s">
         <v>43</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A845" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B845" t="s">
         <v>43</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A846" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B846" t="s">
         <v>44</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A847" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B847" t="s">
         <v>54</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A848" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B848" t="s">
         <v>54</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A849" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B849" t="s">
         <v>6</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A850" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B850" t="s">
         <v>39</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A851" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B851" t="s">
         <v>39</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A852" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B852" t="s">
         <v>9</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A853" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B853" t="s">
         <v>9</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A854" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B854" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A855" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B855" t="s">
         <v>9</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A856" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B856" t="s">
         <v>9</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A857" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B857" t="s">
         <v>9</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A858" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B858" t="s">
         <v>9</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A859" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B859" t="s">
         <v>45</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A860" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B860" t="s">
         <v>45</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A861" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B861" t="s">
         <v>3</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A862" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B862" t="s">
         <v>21</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A863" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B863" t="s">
         <v>47</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A864" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B864" t="s">
         <v>24</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A865" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B865" t="s">
         <v>25</v>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A866" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B866" t="s">
         <v>25</v>
@@ -13371,7 +13371,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A867" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B867" t="s">
         <v>25</v>
@@ -13385,10 +13385,10 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A868" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B868" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C868" t="s">
         <v>7</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A869" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B869" t="s">
         <v>48</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A870" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B870" t="s">
         <v>11</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A871" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B871" t="s">
         <v>11</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A872" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B872" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C872" t="s">
         <v>7</v>
@@ -13455,10 +13455,10 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A873" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B873" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C873" t="s">
         <v>8</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A874" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B874" t="s">
         <v>49</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A875" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B875" t="s">
         <v>49</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A876" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B876" t="s">
         <v>13</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A877" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B877" t="s">
         <v>13</v>
@@ -13525,7 +13525,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A878" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B878" t="s">
         <v>13</v>
@@ -13539,7 +13539,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A879" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B879" t="s">
         <v>27</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A880" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B880" t="s">
         <v>27</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A881" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B881" t="s">
         <v>27</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A882" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B882" t="s">
         <v>27</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A883" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B883" t="s">
         <v>14</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A884" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B884" t="s">
         <v>14</v>
@@ -13623,10 +13623,10 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A885" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B885" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C885" t="s">
         <v>4</v>
@@ -13637,10 +13637,10 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A886" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B886" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C886" t="s">
         <v>12</v>
@@ -13651,10 +13651,10 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A887" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B887" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C887" t="s">
         <v>8</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A888" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B888" t="s">
         <v>58</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A889" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B889" t="s">
         <v>58</v>
@@ -13693,10 +13693,10 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A890" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B890" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C890" t="s">
         <v>7</v>
@@ -13707,10 +13707,10 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A891" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B891" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C891" t="s">
         <v>8</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A892" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B892" t="s">
         <v>33</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A893" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B893" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C893" t="s">
         <v>7</v>
@@ -13749,10 +13749,10 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A894" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B894" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C894" t="s">
         <v>8</v>
@@ -13763,10 +13763,10 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A895" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B895" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C895" t="s">
         <v>7</v>
@@ -13777,10 +13777,10 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A896" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B896" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C896" t="s">
         <v>10</v>
@@ -13791,10 +13791,10 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A897" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B897" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C897" t="s">
         <v>8</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A898" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B898" t="s">
         <v>42</v>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A899" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B899" t="s">
         <v>44</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A900" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B900" t="s">
         <v>54</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A901" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B901" t="s">
         <v>35</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A902" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B902" t="s">
         <v>35</v>
@@ -13875,10 +13875,10 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A903" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B903" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C903" t="s">
         <v>8</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A904" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B904" t="s">
         <v>9</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A905" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B905" t="s">
         <v>9</v>
@@ -13917,7 +13917,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A906" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B906" t="s">
         <v>55</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A907" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B907" t="s">
         <v>3</v>
@@ -13945,7 +13945,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A908" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B908" t="s">
         <v>3</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A909" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B909" t="s">
         <v>3</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A910" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B910" t="s">
         <v>3</v>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A911" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B911" t="s">
         <v>3</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A912" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B912" t="s">
         <v>3</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A913" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B913" t="s">
         <v>21</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A914" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B914" t="s">
         <v>47</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A915" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B915" t="s">
         <v>47</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A916" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B916" t="s">
         <v>11</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A917" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B917" t="s">
         <v>11</v>
@@ -14085,7 +14085,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A918" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B918" t="s">
         <v>11</v>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A919" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B919" t="s">
         <v>11</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A920" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B920" t="s">
         <v>11</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A921" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B921" t="s">
         <v>13</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A922" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B922" t="s">
         <v>13</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A923" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B923" t="s">
         <v>13</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A924" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B924" t="s">
         <v>13</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A925" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B925" t="s">
         <v>13</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A926" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B926" t="s">
         <v>27</v>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A927" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B927" t="s">
         <v>27</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A928" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B928" t="s">
         <v>28</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A929" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B929" t="s">
         <v>28</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A930" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B930" t="s">
         <v>28</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A931" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B931" t="s">
         <v>33</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A932" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B932" t="s">
         <v>33</v>
@@ -14295,7 +14295,7 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A933" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B933" t="s">
         <v>33</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A934" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B934" t="s">
         <v>33</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A935" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B935" t="s">
         <v>29</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A936" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B936" t="s">
         <v>29</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A937" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B937" t="s">
         <v>29</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A938" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B938" t="s">
         <v>29</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A939" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B939" t="s">
         <v>6</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A940" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B940" t="s">
         <v>6</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A941" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B941" t="s">
         <v>9</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A942" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B942" t="s">
         <v>3</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A943" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B943" t="s">
         <v>47</v>
@@ -14449,7 +14449,7 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A944" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B944" t="s">
         <v>25</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A945" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B945" t="s">
         <v>25</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A946" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B946" t="s">
         <v>25</v>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A947" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B947" t="s">
         <v>13</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A948" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B948" t="s">
         <v>27</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A949" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B949" t="s">
         <v>27</v>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A950" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B950" t="s">
         <v>27</v>
@@ -14547,10 +14547,10 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A951" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B951" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C951" t="s">
         <v>7</v>
@@ -14561,10 +14561,10 @@
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A952" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B952" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C952" t="s">
         <v>18</v>
@@ -14575,10 +14575,10 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A953" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B953" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C953" t="s">
         <v>8</v>
@@ -14589,10 +14589,10 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A954" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B954" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C954" t="s">
         <v>7</v>
@@ -14603,10 +14603,10 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A955" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B955" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C955" t="s">
         <v>8</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A956" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B956" t="s">
         <v>42</v>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A957" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B957" t="s">
         <v>42</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A958" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B958" t="s">
         <v>42</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A959" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B959" t="s">
         <v>43</v>
@@ -14673,10 +14673,10 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A960" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B960" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C960" t="s">
         <v>7</v>
@@ -14687,10 +14687,10 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A961" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B961" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C961" t="s">
         <v>4</v>
@@ -14701,10 +14701,10 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A962" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B962" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C962" t="s">
         <v>12</v>
@@ -14715,10 +14715,10 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A963" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B963" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C963" t="s">
         <v>8</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A964" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B964" t="s">
         <v>44</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A965" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B965" t="s">
         <v>44</v>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A966" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B966" t="s">
         <v>44</v>
@@ -14771,7 +14771,7 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A967" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B967" t="s">
         <v>44</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A968" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B968" t="s">
         <v>54</v>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A969" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B969" t="s">
         <v>6</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A970" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B970" t="s">
         <v>6</v>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A971" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B971" t="s">
         <v>6</v>
@@ -14841,7 +14841,7 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A972" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B972" t="s">
         <v>6</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A973" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B973" t="s">
         <v>6</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A974" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B974" t="s">
         <v>6</v>
@@ -14883,7 +14883,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A975" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B975" t="s">
         <v>35</v>
@@ -14897,10 +14897,10 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A976" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B976" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C976" t="s">
         <v>7</v>
@@ -14911,10 +14911,10 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A977" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B977" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C977" t="s">
         <v>10</v>
@@ -14925,10 +14925,10 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A978" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B978" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C978" t="s">
         <v>18</v>
@@ -14939,10 +14939,10 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A979" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B979" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C979" t="s">
         <v>4</v>
@@ -14953,10 +14953,10 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A980" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B980" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C980" t="s">
         <v>12</v>
@@ -14967,10 +14967,10 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A981" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B981" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C981" t="s">
         <v>8</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A982" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B982" t="s">
         <v>9</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A983" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B983" t="s">
         <v>9</v>
@@ -15009,7 +15009,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A984" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B984" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A985" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B985" t="s">
         <v>9</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A986" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B986" t="s">
         <v>45</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A987" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B987" t="s">
         <v>55</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A988" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B988" t="s">
         <v>55</v>
@@ -15079,7 +15079,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A989" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B989" t="s">
         <v>55</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A990" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B990" t="s">
         <v>55</v>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A991" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B991" t="s">
         <v>55</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A992" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B992" t="s">
         <v>55</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A993" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B993" t="s">
         <v>3</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A994" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B994" t="s">
         <v>3</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A995" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B995" t="s">
         <v>3</v>
@@ -15177,10 +15177,10 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A996" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B996" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C996" t="s">
         <v>7</v>
@@ -15191,10 +15191,10 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A997" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B997" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C997" t="s">
         <v>18</v>
@@ -15205,10 +15205,10 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A998" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B998" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C998" t="s">
         <v>4</v>
@@ -15219,10 +15219,10 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A999" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B999" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C999" t="s">
         <v>12</v>
@@ -15233,10 +15233,10 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1000" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1000" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1000" t="s">
         <v>8</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1001" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1001" t="s">
         <v>46</v>
@@ -15261,7 +15261,7 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1002" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1002" t="s">
         <v>47</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1003" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1003" t="s">
         <v>47</v>
@@ -15289,7 +15289,7 @@
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1004" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1004" t="s">
         <v>47</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1005" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1005" t="s">
         <v>47</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1006" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1006" t="s">
         <v>47</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1007" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1007" t="s">
         <v>47</v>
@@ -15345,10 +15345,10 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1008" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1008" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1008" t="s">
         <v>4</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1009" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1009" t="s">
         <v>23</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1010" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1010" t="s">
         <v>24</v>
@@ -15387,10 +15387,10 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1011" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1011" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1011" t="s">
         <v>7</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1012" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1012" t="s">
         <v>48</v>
@@ -15415,7 +15415,7 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1013" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1013" t="s">
         <v>48</v>
@@ -15429,7 +15429,7 @@
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1014" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1014" t="s">
         <v>11</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1015" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1015" t="s">
         <v>11</v>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1016" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1016" t="s">
         <v>11</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1017" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1017" t="s">
         <v>11</v>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1018" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1018" t="s">
         <v>11</v>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1019" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1019" t="s">
         <v>11</v>
@@ -15513,7 +15513,7 @@
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1020" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1020" t="s">
         <v>11</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1021" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1021" t="s">
         <v>49</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1022" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1022" t="s">
         <v>49</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1023" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1023" t="s">
         <v>49</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1024" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1024" t="s">
         <v>49</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1025" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1025" t="s">
         <v>49</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1026" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1026" t="s">
         <v>13</v>
@@ -15611,7 +15611,7 @@
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1027" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1027" t="s">
         <v>13</v>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1028" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1028" t="s">
         <v>13</v>
@@ -15639,7 +15639,7 @@
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1029" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1029" t="s">
         <v>13</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1030" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1030" t="s">
         <v>27</v>
@@ -15667,7 +15667,7 @@
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1031" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1031" t="s">
         <v>27</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1032" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1032" t="s">
         <v>27</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1033" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1033" t="s">
         <v>27</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1034" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1034" t="s">
         <v>27</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1035" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1035" t="s">
         <v>27</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1036" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1036" t="s">
         <v>14</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1037" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1037" t="s">
         <v>14</v>
@@ -15765,7 +15765,7 @@
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1038" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1038" t="s">
         <v>14</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1039" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1039" t="s">
         <v>50</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1040" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1040" t="s">
         <v>50</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1041" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1041" t="s">
         <v>50</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1042" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1042" t="s">
         <v>50</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1043" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1043" t="s">
         <v>50</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1044" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1044" t="s">
         <v>50</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1045" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1045" t="s">
         <v>50</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1046" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1046" t="s">
         <v>17</v>
@@ -15891,7 +15891,7 @@
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1047" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1047" t="s">
         <v>17</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1048" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1048" t="s">
         <v>17</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1049" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1049" t="s">
         <v>17</v>
@@ -15933,7 +15933,7 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1050" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1050" t="s">
         <v>17</v>
@@ -15947,10 +15947,10 @@
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1051" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1051" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C1051" t="s">
         <v>7</v>
@@ -15961,10 +15961,10 @@
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1052" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1052" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C1052" t="s">
         <v>12</v>
@@ -15975,10 +15975,10 @@
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1053" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1053" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1053" t="s">
         <v>7</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1054" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1054" t="s">
         <v>19</v>
@@ -16003,7 +16003,7 @@
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1055" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1055" t="s">
         <v>19</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1056" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1056" t="s">
         <v>19</v>
@@ -16031,7 +16031,7 @@
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1057" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1057" t="s">
         <v>33</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1058" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1058" t="s">
         <v>29</v>
@@ -16059,7 +16059,7 @@
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1059" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1059" t="s">
         <v>29</v>
@@ -16073,10 +16073,10 @@
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1060" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1060" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1060" t="s">
         <v>26</v>
@@ -16087,10 +16087,10 @@
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1061" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1061" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1061" t="s">
         <v>12</v>
@@ -16101,10 +16101,10 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1062" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1062" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1062" t="s">
         <v>8</v>
@@ -16115,10 +16115,10 @@
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1063" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1063" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1063" t="s">
         <v>8</v>
@@ -16129,10 +16129,10 @@
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1064" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1064" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1064" t="s">
         <v>7</v>
@@ -16143,10 +16143,10 @@
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1065" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1065" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1065" t="s">
         <v>10</v>
@@ -16157,10 +16157,10 @@
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1066" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1066" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1066" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1067" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1067" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1067" t="s">
         <v>4</v>
@@ -16185,10 +16185,10 @@
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1068" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1068" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1068" t="s">
         <v>12</v>
@@ -16199,10 +16199,10 @@
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1069" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1069" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1069" t="s">
         <v>8</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1070" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1070" t="s">
         <v>42</v>
@@ -16227,7 +16227,7 @@
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1071" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1071" t="s">
         <v>44</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1072" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1072" t="s">
         <v>44</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1073" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1073" t="s">
         <v>46</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1074" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1074" t="s">
         <v>47</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1075" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1075" t="s">
         <v>47</v>
@@ -16297,7 +16297,7 @@
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1076" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1076" t="s">
         <v>47</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1077" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1077" t="s">
         <v>47</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1078" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1078" t="s">
         <v>11</v>
@@ -16339,7 +16339,7 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1079" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1079" t="s">
         <v>49</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1080" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1080" t="s">
         <v>49</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1081" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1081" t="s">
         <v>49</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1082" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1082" t="s">
         <v>49</v>
@@ -16395,7 +16395,7 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1083" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1083" t="s">
         <v>17</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1084" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1084" t="s">
         <v>19</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1085" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1085" t="s">
         <v>6</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1086" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1086" t="s">
         <v>6</v>
@@ -16451,7 +16451,7 @@
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1087" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1087" t="s">
         <v>6</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1088" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1088" t="s">
         <v>3</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1089" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1089" t="s">
         <v>24</v>
@@ -16493,10 +16493,10 @@
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1090" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1090" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1090" t="s">
         <v>7</v>
@@ -16507,10 +16507,10 @@
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1091" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1091" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1091" t="s">
         <v>18</v>
@@ -16521,10 +16521,10 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1092" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1092" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1092" t="s">
         <v>4</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1093" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1093" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1093" t="s">
         <v>8</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1094" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1094" t="s">
         <v>11</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1095" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1095" t="s">
         <v>11</v>
@@ -16577,7 +16577,7 @@
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1096" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1096" t="s">
         <v>11</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1097" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1097" t="s">
         <v>13</v>
@@ -16605,10 +16605,10 @@
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1098" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1098" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1098" t="s">
         <v>8</v>
@@ -16619,7 +16619,7 @@
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1099" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1099" t="s">
         <v>27</v>
@@ -16633,7 +16633,7 @@
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1100" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1100" t="s">
         <v>27</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1101" t="s">
         <v>14</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1102" t="s">
         <v>14</v>
@@ -16675,7 +16675,7 @@
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1103" t="s">
         <v>14</v>
@@ -16689,10 +16689,10 @@
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1104" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C1104" t="s">
         <v>7</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1105" t="s">
         <v>33</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1106" t="s">
         <v>33</v>
@@ -16731,7 +16731,7 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1107" t="s">
         <v>33</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1108" t="s">
         <v>29</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1109" t="s">
         <v>29</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1110" t="s">
         <v>29</v>
@@ -16787,7 +16787,7 @@
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1111" t="s">
         <v>11</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1112" t="s">
         <v>43</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1113" t="s">
         <v>43</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1114" t="s">
         <v>22</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1115" t="s">
         <v>22</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1116" t="s">
         <v>22</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1117" t="s">
         <v>25</v>
@@ -16885,7 +16885,7 @@
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1118" t="s">
         <v>48</v>
@@ -16899,10 +16899,10 @@
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1119" t="s">
         <v>7</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1120" t="s">
         <v>58</v>
@@ -16927,10 +16927,10 @@
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1121" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1121" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C1121" t="s">
         <v>7</v>
@@ -16941,10 +16941,10 @@
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1122" t="s">
         <v>7</v>
@@ -16955,10 +16955,10 @@
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1123" t="s">
         <v>8</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1124" t="s">
         <v>22</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1125" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1125" t="s">
         <v>22</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1126" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1126" t="s">
         <v>22</v>
